--- a/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie Jacquemin\Documents\GitHub\Swate-templates_myfork\templates\community\TRR341_Phenotyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2F5FE3-78B4-4C2D-9344-650C0E5A0A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F0322B-CC4E-AD43-874A-B70297A84E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="14370" windowHeight="12390" activeTab="1" xr2:uid="{50CA8AB3-59F5-4136-8EB4-C78FB1CD3675}"/>
+    <workbookView xWindow="-21280" yWindow="-20900" windowWidth="34680" windowHeight="18140" xr2:uid="{50CA8AB3-59F5-4136-8EB4-C78FB1CD3675}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth_protocol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
   </si>
@@ -876,40 +876,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B22D0A4-8683-48AD-B0BC-FF438EDBED72}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="1.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="41.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="39.42578125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" customWidth="1"/>
+    <col min="8" max="8" width="53.5" customWidth="1"/>
+    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="14" max="14" width="41.1640625" customWidth="1"/>
+    <col min="15" max="15" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="39.5" customWidth="1"/>
+    <col min="18" max="18" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" customWidth="1"/>
+    <col min="20" max="20" width="39.5" customWidth="1"/>
+    <col min="21" max="21" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" customWidth="1"/>
+    <col min="24" max="24" width="37.33203125" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -998,9 +998,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +1035,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1049,9 +1047,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1070,7 +1066,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -1082,9 +1078,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1103,7 +1097,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1115,9 +1109,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1136,7 +1128,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1148,9 +1140,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1169,7 +1159,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1181,9 +1171,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1202,7 +1190,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -1214,9 +1202,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1235,7 +1221,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -1247,9 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1268,7 +1252,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -1280,9 +1264,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1301,7 +1283,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1313,9 +1295,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1346,16 +1326,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42363441-6BCA-4D31-BC7D-6E557250B3AF}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1363,7 +1343,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1351,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1379,7 +1359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1387,7 +1367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1395,7 +1375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1403,37 +1383,37 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -1459,25 +1439,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1485,7 +1465,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1493,13 +1473,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1507,25 +1487,25 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -1533,13 +1513,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -1547,13 +1527,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>55</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F0322B-CC4E-AD43-874A-B70297A84E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D55BE8-6D71-7947-ADAE-F0C9E96E8A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21280" yWindow="-20900" windowWidth="34680" windowHeight="18140" xr2:uid="{50CA8AB3-59F5-4136-8EB4-C78FB1CD3675}"/>
+    <workbookView xWindow="-21280" yWindow="-20920" windowWidth="34680" windowHeight="18140" xr2:uid="{50CA8AB3-59F5-4136-8EB4-C78FB1CD3675}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth_protocol" sheetId="1" r:id="rId1"/>
@@ -877,36 +877,36 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" customWidth="1"/>
-    <col min="8" max="8" width="53.5" customWidth="1"/>
-    <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
-    <col min="14" max="14" width="41.1640625" customWidth="1"/>
-    <col min="15" max="15" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" customWidth="1"/>
-    <col min="17" max="17" width="39.5" customWidth="1"/>
-    <col min="18" max="18" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" customWidth="1"/>
-    <col min="20" max="20" width="39.5" customWidth="1"/>
-    <col min="21" max="21" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" customWidth="1"/>
-    <col min="24" max="24" width="37.33203125" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="41.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.5" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="39.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">

--- a/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D55BE8-6D71-7947-ADAE-F0C9E96E8A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F837B4-58E2-4D4C-9F6B-97043340F853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21280" yWindow="-20920" windowWidth="34680" windowHeight="18140" xr2:uid="{50CA8AB3-59F5-4136-8EB4-C78FB1CD3675}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{50CA8AB3-59F5-4136-8EB4-C78FB1CD3675}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth_protocol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
   </si>
@@ -229,9 +229,6 @@
     <t xml:space="preserve">phenotyping </t>
   </si>
   <si>
-    <t>plant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
@@ -257,6 +254,21 @@
   </si>
   <si>
     <t>Coordinator Plant Cultivation and Phenotyping Platform Project Z2</t>
+  </si>
+  <si>
+    <t>GO:0040007</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>Plant</t>
   </si>
 </sst>
 </file>
@@ -406,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -440,10 +452,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -560,9 +575,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,7 +615,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -706,7 +721,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -848,7 +863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -856,7 +871,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -876,40 +891,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B22D0A4-8683-48AD-B0BC-FF438EDBED72}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="53.44140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="26.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="41.1640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="39.5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="39.5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="30.6640625" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -986,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1035,7 +1050,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1066,7 +1081,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -1097,7 +1112,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1128,7 +1143,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1159,7 +1174,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1190,7 +1205,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -1221,7 +1236,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -1252,7 +1267,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -1283,7 +1298,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1326,16 +1341,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42363441-6BCA-4D31-BC7D-6E557250B3AF}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1343,7 +1358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1351,7 +1366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1359,7 +1374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1375,7 +1390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1383,42 +1398,42 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -1427,113 +1442,123 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>55</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F837B4-58E2-4D4C-9F6B-97043340F853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BCC4C8-F042-459F-AC49-572CC69AC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{50CA8AB3-59F5-4136-8EB4-C78FB1CD3675}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
   </si>
@@ -223,18 +223,9 @@
     <t>annotationTableSwiftImpala67</t>
   </si>
   <si>
-    <t xml:space="preserve"> protocol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">phenotyping </t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
-    <t xml:space="preserve">study </t>
-  </si>
-  <si>
     <t>MIAPPE</t>
   </si>
   <si>
@@ -259,16 +250,22 @@
     <t>GO:0040007</t>
   </si>
   <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
-  </si>
-  <si>
-    <t>NCIT</t>
-  </si>
-  <si>
     <t>Plant</t>
+  </si>
+  <si>
+    <t>NCIT:C14258</t>
+  </si>
+  <si>
+    <t>phenotyping</t>
+  </si>
+  <si>
+    <t>DPBO:1000224</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>NCIT:C63536</t>
   </si>
 </sst>
 </file>
@@ -418,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -452,9 +449,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1339,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42363441-6BCA-4D31-BC7D-6E557250B3AF}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1348,7 @@
     <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1358,7 +1356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +1372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1382,7 +1380,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1390,7 +1388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1398,96 +1396,97 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1495,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1509,7 +1508,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1535,7 +1534,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1549,7 +1548,7 @@
         <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">

--- a/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Growth_protocol_TRR341_MIAPPE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BCC4C8-F042-459F-AC49-572CC69AC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD376F6C-6C8D-42CA-87E1-147210409B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{50CA8AB3-59F5-4136-8EB4-C78FB1CD3675}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth_protocol" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -415,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -449,10 +449,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1462,7 +1461,6 @@
       <c r="D13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="14"/>
       <c r="F13" t="s">
         <v>76</v>
       </c>
@@ -1472,7 +1470,6 @@
         <v>42</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="D14" s="14"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
